--- a/testcase_orange_hrm (9).xlsx
+++ b/testcase_orange_hrm (9).xlsx
@@ -150,10 +150,6 @@
     <t xml:space="preserve">Verify that the "Tab" key navigation functionality works correctly </t>
   </si>
   <si>
-    <t>1. Click on the Admin tab in the sidebar
-2. Use the "Tab" key to navigate through the elements and observe the result.</t>
-  </si>
-  <si>
     <t>When pressing the "Tab" key, the focus moves sequentially through the interactive elements within the Admin tab.
 The focus should move from the Orange HRM icon to the Admin tab, then to Pim, Leave, Time, and other relevant elements in the sidebar in a logical order.</t>
   </si>
@@ -201,6 +197,11 @@
   </si>
   <si>
     <t>Login to system successfully and navigate to the Dashboard Page</t>
+  </si>
+  <si>
+    <t>1. Click on the Admin tab in the sidebar
+2. Use the "Tab" key to navigate through the elements 
+3. Observe the result.</t>
   </si>
 </sst>
 </file>
@@ -576,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -788,7 +789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -799,10 +800,10 @@
         <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>28</v>
@@ -827,13 +828,13 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>28</v>
@@ -860,13 +861,13 @@
         <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>28</v>
@@ -891,22 +892,22 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>13</v>
